--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,54 +46,51 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>falling</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>sc</t>
   </si>
   <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -103,82 +100,94 @@
     <t>negative</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>safe</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>credit</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>important</t>
+    <t>key</t>
   </si>
   <si>
     <t>please</t>
@@ -187,6 +196,9 @@
     <t>energy</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
@@ -196,19 +208,25 @@
     <t>protect</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
+    <t>give</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
+    <t>consumer</t>
+  </si>
+  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>19</t>
   </si>
 </sst>
 </file>
@@ -566,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -656,16 +674,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -706,16 +724,16 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9787234042553191</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M4">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -756,16 +774,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.9782608695652174</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M5">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8717948717948718</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -806,16 +824,16 @@
         <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.9661016949152542</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L6">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.868421052631579</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.9083333333333333</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L7">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="M7">
-        <v>109</v>
+        <v>57</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8611111111111112</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="D8">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="L8">
         <v>34</v>
       </c>
-      <c r="K8">
-        <v>0.9017857142857143</v>
-      </c>
-      <c r="L8">
-        <v>101</v>
-      </c>
       <c r="M8">
-        <v>101</v>
+        <v>34</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.839041095890411</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C9">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.8943661971830986</v>
+        <v>0.9017857142857143</v>
       </c>
       <c r="L9">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="M9">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7837837837837838</v>
+        <v>0.7297297297297297</v>
       </c>
       <c r="C10">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.890625</v>
+        <v>0.9</v>
       </c>
       <c r="L10">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M10">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7435897435897436</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.8823529411764706</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1106,16 +1124,16 @@
         <v>11</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.8780487804878049</v>
+        <v>0.8828125</v>
       </c>
       <c r="L12">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="M12">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.65</v>
+        <v>0.5852713178294574</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="D13">
-        <v>26</v>
+        <v>302</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.8611111111111112</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L13">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5949612403100775</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C14">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="D14">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.8490566037735849</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="L14">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="M14">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5600000000000001</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C15">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.8448275862068966</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="L15">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="M15">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5098039215686274</v>
+        <v>0.5234899328859061</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.8095238095238095</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L16">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4899328859060403</v>
+        <v>0.5064935064935064</v>
       </c>
       <c r="C17">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="D17">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1353,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.8093994778067886</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L17">
-        <v>310</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>310</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1377,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1406,16 +1424,16 @@
         <v>113</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>0.80625</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="L18">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>129</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1427,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1435,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3888888888888889</v>
+        <v>0.4</v>
       </c>
       <c r="C19">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1453,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>0.78</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L19">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="M19">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1477,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1485,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3766233766233766</v>
+        <v>0.2698412698412698</v>
       </c>
       <c r="C20">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="D20">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1503,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>48</v>
+        <v>184</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K20">
-        <v>0.7674418604651163</v>
+        <v>0.80625</v>
       </c>
       <c r="L20">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="M20">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1535,13 +1553,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2142857142857143</v>
+        <v>0.1126005361930295</v>
       </c>
       <c r="C21">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D21">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1553,69 +1571,45 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>198</v>
+        <v>331</v>
       </c>
       <c r="J21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21">
+        <v>0.8</v>
+      </c>
+      <c r="L21">
+        <v>40</v>
+      </c>
+      <c r="M21">
+        <v>40</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K21">
-        <v>0.7659574468085106</v>
-      </c>
-      <c r="L21">
-        <v>72</v>
-      </c>
-      <c r="M21">
-        <v>72</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.0938337801608579</v>
-      </c>
-      <c r="C22">
-        <v>35</v>
-      </c>
-      <c r="D22">
-        <v>35</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>338</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>48</v>
-      </c>
       <c r="K22">
-        <v>0.7186440677966102</v>
+        <v>0.7911227154046997</v>
       </c>
       <c r="L22">
-        <v>212</v>
+        <v>303</v>
       </c>
       <c r="M22">
-        <v>212</v>
+        <v>303</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1627,21 +1621,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>0.6944444444444444</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1653,21 +1647,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>0.6941176470588235</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="L24">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="M24">
-        <v>236</v>
+        <v>72</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1679,21 +1673,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>104</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>0.6875</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1705,21 +1699,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.6741573033707865</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L26">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1731,21 +1725,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.6461538461538462</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="L27">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="M27">
-        <v>42</v>
+        <v>215</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1757,21 +1751,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>23</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>0.6444444444444445</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1783,21 +1777,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>0.6401673640167364</v>
+        <v>0.7</v>
       </c>
       <c r="L29">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="M29">
-        <v>153</v>
+        <v>238</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1809,21 +1803,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K30">
-        <v>0.625</v>
+        <v>0.6629213483146067</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1835,15 +1829,15 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.6142857142857143</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="L31">
         <v>43</v>
@@ -1861,21 +1855,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.59375</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1887,21 +1881,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.5616438356164384</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1913,15 +1907,15 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>32</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.5531914893617021</v>
+        <v>0.65</v>
       </c>
       <c r="L34">
         <v>26</v>
@@ -1939,21 +1933,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.5256410256410257</v>
+        <v>0.65</v>
       </c>
       <c r="L35">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M35">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1965,15 +1959,15 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>0.1004784688995215</v>
+        <v>0.6</v>
       </c>
       <c r="L36">
         <v>42</v>
@@ -1991,21 +1985,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>376</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K37">
-        <v>0.0889423076923077</v>
+        <v>0.5625</v>
       </c>
       <c r="L37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2017,33 +2011,215 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>379</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K38">
+        <v>0.5068493150684932</v>
+      </c>
+      <c r="L38">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>37</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K38">
-        <v>0.02796420581655481</v>
-      </c>
-      <c r="L38">
-        <v>25</v>
-      </c>
-      <c r="M38">
-        <v>25</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>869</v>
+      <c r="K39">
+        <v>0.5</v>
+      </c>
+      <c r="L39">
+        <v>39</v>
+      </c>
+      <c r="M39">
+        <v>39</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K40">
+        <v>0.459016393442623</v>
+      </c>
+      <c r="L40">
+        <v>28</v>
+      </c>
+      <c r="M40">
+        <v>28</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K41">
+        <v>0.1267942583732057</v>
+      </c>
+      <c r="L41">
+        <v>53</v>
+      </c>
+      <c r="M41">
+        <v>53</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42">
+        <v>0.1201923076923077</v>
+      </c>
+      <c r="L42">
+        <v>50</v>
+      </c>
+      <c r="M42">
+        <v>50</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K43">
+        <v>0.04</v>
+      </c>
+      <c r="L43">
+        <v>26</v>
+      </c>
+      <c r="M43">
+        <v>26</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K44">
+        <v>0.03131991051454139</v>
+      </c>
+      <c r="L44">
+        <v>28</v>
+      </c>
+      <c r="M44">
+        <v>28</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K45">
+        <v>0.01819878674755016</v>
+      </c>
+      <c r="L45">
+        <v>39</v>
+      </c>
+      <c r="M45">
+        <v>39</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>2104</v>
       </c>
     </row>
   </sheetData>
